--- a/Data/Pre_ProcessedInfo.xlsx
+++ b/Data/Pre_ProcessedInfo.xlsx
@@ -1,13 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dru\Documents\GitHub\parallel-data-analysis-obfuscation\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB6BFBCA-1CF5-4F09-A91B-15A2CE158114}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="9600" yWindow="4425" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,10 +25,50 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>patient_id</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Deceased</t>
+  </si>
+  <si>
+    <t>Released</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isolated </t>
+  </si>
+  <si>
+    <t>Birth Year</t>
+  </si>
+  <si>
+    <t>Raw</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -49,8 +96,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +380,582 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+    </row>
+    <row r="17" spans="10:24" x14ac:dyDescent="0.25">
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+    </row>
+    <row r="18" spans="10:24" x14ac:dyDescent="0.25">
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+    </row>
+    <row r="19" spans="10:24" x14ac:dyDescent="0.25">
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+    </row>
+    <row r="20" spans="10:24" x14ac:dyDescent="0.25">
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+    </row>
+    <row r="21" spans="10:24" x14ac:dyDescent="0.25">
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+    </row>
+    <row r="22" spans="10:24" x14ac:dyDescent="0.25">
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+    </row>
+    <row r="23" spans="10:24" x14ac:dyDescent="0.25">
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+    </row>
+    <row r="24" spans="10:24" x14ac:dyDescent="0.25">
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+    </row>
+    <row r="25" spans="10:24" x14ac:dyDescent="0.25">
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+    </row>
+    <row r="26" spans="10:24" x14ac:dyDescent="0.25">
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+    </row>
+    <row r="27" spans="10:24" x14ac:dyDescent="0.25">
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+    </row>
+    <row r="28" spans="10:24" x14ac:dyDescent="0.25">
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+    </row>
+    <row r="29" spans="10:24" x14ac:dyDescent="0.25">
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+    </row>
+    <row r="30" spans="10:24" x14ac:dyDescent="0.25">
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55064DD2-112C-4DC6-BD9C-43050D48B76E}">
+  <dimension ref="A2:B3"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A3" sqref="A1:A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>